--- a/Compute.Documents/Gantt/Trimester 2.xlsx
+++ b/Compute.Documents/Gantt/Trimester 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\compute-js\Compute.Documents\Gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Honours\Compute.Documents\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$E1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$4='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
-    <definedName name="period_selected">'Project Planner'!$H$2</definedName>
-    <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
-    <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
+    <definedName name="PercentCompleteBeyond">('Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$5&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$5='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
+    <definedName name="period_selected">'Project Planner'!$H$3</definedName>
+    <definedName name="PeriodInActual">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
+    <definedName name="PeriodInPlan">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
-    <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$4:$5</definedName>
+    <definedName name="TitleRegion..BO60">'Project Planner'!$B$4:$B$5</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -36,93 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Project Planner</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -230,7 +149,55 @@
     <t>Plan Duration</t>
   </si>
   <si>
-    <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
+    <t>Expand GPU Technical Review</t>
+  </si>
+  <si>
+    <t>Expand JavaScript Technical Review</t>
+  </si>
+  <si>
+    <t>Presentation Prep</t>
+  </si>
+  <si>
+    <t>Presentation Format</t>
+  </si>
+  <si>
+    <t>GL Bindings</t>
+  </si>
+  <si>
+    <t>CL Bindings</t>
+  </si>
+  <si>
+    <t>Demo Brainstorm</t>
+  </si>
+  <si>
+    <t>Demo Implementation</t>
+  </si>
+  <si>
+    <t>Report - Introduction</t>
+  </si>
+  <si>
+    <t>Report - Technical Review</t>
+  </si>
+  <si>
+    <t>Report - Preliminary Work</t>
+  </si>
+  <si>
+    <t>Report - Platform Implementation</t>
+  </si>
+  <si>
+    <t>Report - Demo Implementation</t>
+  </si>
+  <si>
+    <t>Report - Future Work</t>
+  </si>
+  <si>
+    <t>Report - Critical Appraisal</t>
+  </si>
+  <si>
+    <t>Report - Conclusion</t>
+  </si>
+  <si>
+    <t>Trimester 2</t>
   </si>
 </sst>
 </file>
@@ -1048,640 +1015,592 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:AP31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BJ6" sqref="BI6:BJ6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="39.625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="15">
+    <row r="1" spans="2:42" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:42" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+    </row>
+    <row r="4" spans="2:42" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="3">
+      <c r="C4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="2:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L5" s="3">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M5" s="3">
         <v>6</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N5" s="3">
         <v>7</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O5" s="3">
         <v>8</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P5" s="3">
         <v>9</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q5" s="3">
         <v>10</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R5" s="3">
         <v>11</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S5" s="3">
         <v>12</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T5" s="3">
         <v>13</v>
       </c>
-      <c r="U4" s="3">
-        <v>14</v>
-      </c>
-      <c r="V4" s="3">
-        <v>15</v>
-      </c>
-      <c r="W4" s="3">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>26</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>27</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>38</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>39</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>41</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>42</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>43</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>44</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>45</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>46</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>47</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>48</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>49</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>50</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>51</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>52</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>57</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>58</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>59</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="2:42" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8</v>
-      </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="G9" s="8">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+    </row>
+    <row r="11" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
       <c r="E11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+    </row>
+    <row r="12" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+    </row>
+    <row r="13" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
       </c>
       <c r="D13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+    </row>
+    <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+    </row>
+    <row r="15" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7">
         <v>5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+    </row>
+    <row r="16" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9">
         <v>6</v>
       </c>
-      <c r="G13" s="8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+    </row>
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7">
         <v>7</v>
       </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+    </row>
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7">
         <v>8</v>
       </c>
-      <c r="G15" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7">
-        <v>9</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7">
-        <v>7</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9</v>
-      </c>
       <c r="D18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+    </row>
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7">
         <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+    </row>
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>11</v>
@@ -1690,211 +1609,318 @@
         <v>2</v>
       </c>
       <c r="E21" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7">
-        <v>7</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="7">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="7">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="7">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7">
-        <v>15</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="7">
-        <v>15</v>
-      </c>
-      <c r="D29" s="7">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7">
-        <v>15</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="7">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="7">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7">
-        <v>30</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+    </row>
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+    </row>
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+    </row>
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+    </row>
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+    </row>
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+    </row>
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+    </row>
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+    </row>
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+    </row>
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI3:AP3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AA3:AG3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
+  <conditionalFormatting sqref="H6:T21">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1911,7 +1937,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="7">
-      <formula>H$4=period_selected</formula>
+      <formula>H$5=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
@@ -1920,35 +1946,35 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B32:BO32">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
+  <conditionalFormatting sqref="H5:T5">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
+      <formula>H$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A2"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H3">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B4:B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C4:C5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D4:D5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E4:E5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F4:F5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G4:G5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B3:F3"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Compute.Documents/Gantt/Trimester 2.xlsx
+++ b/Compute.Documents/Gantt/Trimester 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Honours\Compute.Documents\Gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\computing-honours-project\Compute.Documents\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1017,8 +1017,8 @@
   </sheetPr>
   <dimension ref="B1:AP31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BJ6" sqref="BI6:BJ6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1027,12 @@
     <col min="2" max="2" width="39.625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="8" max="16" width="2.75" style="1"/>
+    <col min="17" max="18" width="4.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="1" customWidth="1"/>
+    <col min="21" max="27" width="2.75" style="1"/>
+    <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="30" t="s">
@@ -1204,13 +1209,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6"/>
       <c r="V6"/>
@@ -1231,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7"/>
       <c r="V7"/>
@@ -1258,13 +1263,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8"/>
       <c r="V8"/>
@@ -1285,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9"/>
       <c r="V9"/>
@@ -1312,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10"/>
       <c r="V10"/>
@@ -1339,13 +1344,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11"/>
       <c r="V11"/>
@@ -1366,13 +1371,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
@@ -1393,13 +1398,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
@@ -1420,13 +1425,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14"/>
       <c r="V14"/>
@@ -1447,13 +1452,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
@@ -1474,13 +1479,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16"/>
       <c r="V16"/>
@@ -1501,13 +1506,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
@@ -1528,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18"/>
       <c r="V18"/>
@@ -1555,13 +1560,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
@@ -1582,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20"/>
       <c r="V20"/>
@@ -1609,13 +1614,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
